--- a/insitu/30mv/insitu-30mv-Layer1-Test3.xlsx
+++ b/insitu/30mv/insitu-30mv-Layer1-Test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/insitu/30mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A39575D-C7FB-0F48-86F5-B3F04AB4CC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9661C6-CF0D-D443-82B2-42D94AEEA68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H124"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
